--- a/.github/models_history.xlsx
+++ b/.github/models_history.xlsx
@@ -5,27 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\libs\mealpy\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\libs\mealpy\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23268" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23268" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v1.2.2" sheetId="1" r:id="rId1"/>
     <sheet name="v2.0.0" sheetId="2" r:id="rId2"/>
-    <sheet name="v2.5.0" sheetId="7" r:id="rId3"/>
-    <sheet name="paper" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
+    <sheet name="v2.4.2" sheetId="7" r:id="rId3"/>
+    <sheet name="v2.5.0" sheetId="8" r:id="rId4"/>
+    <sheet name="paper" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="585">
   <si>
     <t>Group</t>
   </si>
@@ -1423,13 +1424,1195 @@
   </si>
   <si>
     <t>\cite{theu}</t>
+  </si>
+  <si>
+    <t>OriginalEP</t>
+  </si>
+  <si>
+    <t>LevyEP</t>
+  </si>
+  <si>
+    <t>OriginalES</t>
+  </si>
+  <si>
+    <t>LevyES</t>
+  </si>
+  <si>
+    <t>OriginalMA</t>
+  </si>
+  <si>
+    <t>SingleGA</t>
+  </si>
+  <si>
+    <t>MultiGA</t>
+  </si>
+  <si>
+    <t>OriginalFPA</t>
+  </si>
+  <si>
+    <t>OriginalCRO</t>
+  </si>
+  <si>
+    <t>OriginalPSO</t>
+  </si>
+  <si>
+    <t>OriginalBeesA</t>
+  </si>
+  <si>
+    <t>OriginalCSO</t>
+  </si>
+  <si>
+    <t>OriginalABC</t>
+  </si>
+  <si>
+    <t>OriginalACOR</t>
+  </si>
+  <si>
+    <t>OriginalCSA</t>
+  </si>
+  <si>
+    <t>OriginalFFA</t>
+  </si>
+  <si>
+    <t>OriginalFA</t>
+  </si>
+  <si>
+    <t>AdaptiveBA</t>
+  </si>
+  <si>
+    <t>ModifiedBA</t>
+  </si>
+  <si>
+    <t>BaseFOA</t>
+  </si>
+  <si>
+    <t>OriginalSSpiderO</t>
+  </si>
+  <si>
+    <t>OriginalGWO</t>
+  </si>
+  <si>
+    <t>OriginalSSpiderA</t>
+  </si>
+  <si>
+    <t>BaseALO</t>
+  </si>
+  <si>
+    <t>BaseMFO</t>
+  </si>
+  <si>
+    <t>OriginalEHO</t>
+  </si>
+  <si>
+    <t>BaseJA</t>
+  </si>
+  <si>
+    <t>OriginalWOA</t>
+  </si>
+  <si>
+    <t>OriginalDO</t>
+  </si>
+  <si>
+    <t>OriginalBSA</t>
+  </si>
+  <si>
+    <t>OriginalSHO</t>
+  </si>
+  <si>
+    <t>OriginalSSO</t>
+  </si>
+  <si>
+    <t>OriginalSRSR</t>
+  </si>
+  <si>
+    <t>OriginalGOA</t>
+  </si>
+  <si>
+    <t>OriginalCOA</t>
+  </si>
+  <si>
+    <t>OriginalMSA</t>
+  </si>
+  <si>
+    <t>OriginalSLO</t>
+  </si>
+  <si>
+    <t>ModifiedSLO</t>
+  </si>
+  <si>
+    <t>ImprovedSLO</t>
+  </si>
+  <si>
+    <t>ImprovedNMRA</t>
+  </si>
+  <si>
+    <t>OriginalNMRA</t>
+  </si>
+  <si>
+    <t>OriginalPFA</t>
+  </si>
+  <si>
+    <t>OriginalSFO</t>
+  </si>
+  <si>
+    <t>ImprovedSFO</t>
+  </si>
+  <si>
+    <t>OriginalHHO</t>
+  </si>
+  <si>
+    <t>OriginalMRFO</t>
+  </si>
+  <si>
+    <t>OriginalBES</t>
+  </si>
+  <si>
+    <t>BaseSSA</t>
+  </si>
+  <si>
+    <t>OriginalSA</t>
+  </si>
+  <si>
+    <t>OriginalWDO</t>
+  </si>
+  <si>
+    <t>BaseMVO</t>
+  </si>
+  <si>
+    <t>OriginalTWO</t>
+  </si>
+  <si>
+    <t>OppoTWO</t>
+  </si>
+  <si>
+    <t>LevyTWO</t>
+  </si>
+  <si>
+    <t>BaseEFO</t>
+  </si>
+  <si>
+    <t>OriginalNRO</t>
+  </si>
+  <si>
+    <t>OriginalHGSO</t>
+  </si>
+  <si>
+    <t>OriginalASO</t>
+  </si>
+  <si>
+    <t>OriginalEO</t>
+  </si>
+  <si>
+    <t>OriginalICA</t>
+  </si>
+  <si>
+    <t>BaseTLO</t>
+  </si>
+  <si>
+    <t>ImprovedBSO</t>
+  </si>
+  <si>
+    <t>BaseQSA</t>
+  </si>
+  <si>
+    <t>OppoQSA</t>
+  </si>
+  <si>
+    <t>LevyQSA</t>
+  </si>
+  <si>
+    <t>OriginalBSO</t>
+  </si>
+  <si>
+    <t>BaseSARO</t>
+  </si>
+  <si>
+    <t>BaseLCO</t>
+  </si>
+  <si>
+    <t>ImprovedLCO</t>
+  </si>
+  <si>
+    <t>OriginalSSDO</t>
+  </si>
+  <si>
+    <t>BaseGSKA</t>
+  </si>
+  <si>
+    <t>BaseCHIO</t>
+  </si>
+  <si>
+    <t>BaseFBIO</t>
+  </si>
+  <si>
+    <t>BaseBRO</t>
+  </si>
+  <si>
+    <t>BaseBBO</t>
+  </si>
+  <si>
+    <t>BaseVCS</t>
+  </si>
+  <si>
+    <t>BaseSBO</t>
+  </si>
+  <si>
+    <t>OriginalEOA</t>
+  </si>
+  <si>
+    <t>OriginalWHO</t>
+  </si>
+  <si>
+    <t>BaseSMA</t>
+  </si>
+  <si>
+    <t>BaseGCO</t>
+  </si>
+  <si>
+    <t>ImprovedAEO</t>
+  </si>
+  <si>
+    <t>AdaptiveAEO</t>
+  </si>
+  <si>
+    <t>SwarmHC</t>
+  </si>
+  <si>
+    <t>OriginalCEM</t>
+  </si>
+  <si>
+    <t>BaseSCA</t>
+  </si>
+  <si>
+    <t>BaseHS</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>OriginalWCA</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <r>
+      <t>Lee, C.Y. and Yao, X., 2001, May. Evolutionary algorithms with adaptive lévy mutations. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceedings of the 2001 congress on evolutionary computation (IEEE Cat. No. 01TH8546)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Vol. 1, pp. 568-575). IEEE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zhang, S., &amp; Salari, E. (2005). Competitive learning vector quantization with evolution strategies for image compression. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Optical Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 027006.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Falco, I., Della Cioppa, A. and Tarantino, E., 2002. Mutation-based genetic algorithm: performance evaluation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Soft Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), pp.285-299.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Jong, K.A. and Spears, W.M., 1992. A formal analysis of the role of multi-point crossover in genetic algorithms. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Annals of mathematics and Artificial intelligence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), pp.1-26.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Singh, P., Mittal, N., Singh, U. and Salgotra, R., 2021. Naked mole-rat algorithm with improved exploration and exploitation capabilities to determine 2D and 3D coordinates of sensor nodes in WSNs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arabian Journal for Science and Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), pp.1155-1178.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wang, X., Wang, W. and Wang, Y., 2013, July. An adaptive bat algorithm. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Conference on Intelligent Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (pp. 216-223). Springer, Berlin, Heidelberg.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dong, H., Li, T., Ding, R. and Sun, J., 2018. A novel hybrid genetic algorithm with granular information for feature selection and optimization. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Soft Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.33-46.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fan, Y., Wang, P., Heidari, A.A., Wang, M., Zhao, X., Chen, H. and Li, C., 2020. Boosted hunting-based fruit fly optimization and advances in real-world problems. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expert Systems with Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p.113502.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Iacca, G., dos Santos Junior, V.C. and de Melo, V.V., 2021. An improved Jaya optimization algorithm with Lévy flight. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expert Systems with Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p.113902.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Masadeh, R., Alsharman, N., Sharieh, A., Mahafzah, B.A. and Abdulrahman, A., 2021. Task scheduling on cloud computing based on sea lion optimization algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Web Information Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Li, L.L., Shen, Q., Tseng, M.L. and Luo, S., 2021. Power system hybrid dynamic economic emission dispatch with wind energy based on improved sailfish algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Cleaner Production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p.128318.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kaveh, A., Almasi, P. and Khodagholi, A., 2022. Optimum Design of Castellated Beams Using Four Recently Developed Meta-heuristic Algorithms. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Iranian Journal of Science and Technology, Transactions of Civil Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.1-13.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gupta, S., Deep, K. and Mirjalili, S., 2020. An efficient equilibrium optimizer with mutation strategy for numerical optimization. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Soft Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p.106542.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wunnava, A., Naik, M.K., Panda, R., Jena, B. and Abraham, A., 2020. A novel interdependence based multilevel thresholding technique using adaptive equilibrium optimizer. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Engineering Applications of Artificial Intelligence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p.103836.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rao, R. and Patel, V., 2012. An elitist teaching-learning-based optimization algorithm for solving complex constrained optimization problems. international journal of industrial engineering computations, 3(4), pp.535-560.</t>
+  </si>
+  <si>
+    <r>
+      <t>El-Abd, M., 2017. Global-best brain storm optimization algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Swarm and evolutionary computation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.27-44.</t>
+    </r>
+  </si>
+  <si>
+    <t>Zheng, X. and Nguyen, H., 2022. A novel artificial intelligent model for predicting water treatment efficiency of various biochar systems based on artificial neural network and queuing search algorithm. Chemosphere, 287, p.132251.</t>
+  </si>
+  <si>
+    <t>Abderazek, H., Hamza, F., Yildiz, A.R., Gao, L. and Sait, S.M., 2021. A comparative analysis of the queuing search algorithm, the sine-cosine algorithm, the ant lion algorithm to determine the optimal weight design problem of a spur gear drive system. Materials Testing, 63(5), pp.442-447.</t>
+  </si>
+  <si>
+    <r>
+      <t>Nguyen, B.M., Hoang, B., Nguyen, T. and Nguyen, G., 2021. nQSV-Net: a novel queuing search variant for global space search and workload modeling. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Ambient Intelligence and Humanized Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), pp.27-46.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mohamed, A.W., Hadi, A.A., Mohamed, A.K. and Awad, N.H., 2020, July. Evaluating the performance of adaptive GainingSharing knowledge based algorithm on CEC 2020 benchmark problems. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2020 IEEE Congress on Evolutionary Computation (CEC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (pp. 1-8). IEEE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fathy, A., Rezk, H. and Alanazi, T.M., 2021. Recent approach of forensic-based investigation algorithm for optimizing fractional order PID-based MPPT with proton exchange membrane fuel cell. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEEE Access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.18974-18992.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zhao, W., Wang, L. and Zhang, Z., 2020. Artificial ecosystem-based optimization: a novel nature-inspired meta-heuristic algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neural Computing and Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13), pp.9383-9425.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eid, A., Kamel, S., Korashy, A. and Khurshaid, T., 2020. An enhanced artificial ecosystem-based optimization for optimal allocation of multiple distributed generations. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEEE Access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.178493-178513.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Menesy, A.S., Sultan, H.M., Korashy, A., Banakhr, F.A., Ashmawy, M.G. and Kamel, S., 2020. Effective parameter extraction of different polymer electrolyte membrane fuel cell stack models using a modified artificial ecosystem optimization algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEEE Access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.31892-31909.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rizk-Allah, R.M. and El-Fergany, A.A., 2021. Artificial ecosystem optimizer for parameters identification of proton exchange membrane fuel cells model. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Hydrogen Energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(75), pp.37612-37627.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attia, A.F., El Sehiemy, R.A. and Hasanien, H.M., 2018. Optimal power flow solution in power systems using a novel Sine-Cosine algorithm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Electrical Power &amp; Energy Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, pp.331-343.</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +2816,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1982,7 +3178,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2047,6 +3243,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8505,13 +9708,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:G116"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection sqref="A1:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="17" customWidth="1"/>
     <col min="2" max="2" width="43.109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="17" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="17" customWidth="1"/>
@@ -11075,10 +12278,3733 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="144.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.8">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.8">
+      <c r="A2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1964</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8">
+      <c r="A3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.8">
+      <c r="A4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1971</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.8">
+      <c r="A5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="18">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.8">
+      <c r="A6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1989</v>
+      </c>
+      <c r="F6" s="18">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.8">
+      <c r="A7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1992</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.8">
+      <c r="A8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="18">
+        <v>7</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.8">
+      <c r="A9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="18">
+        <v>7</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.8">
+      <c r="A10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1997</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.8">
+      <c r="A11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2009</v>
+      </c>
+      <c r="F11" s="18">
+        <v>6</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.8">
+      <c r="A12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2005</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.8">
+      <c r="A13" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2013</v>
+      </c>
+      <c r="F13" s="18">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.8">
+      <c r="A14" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2014</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.8">
+      <c r="A15" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2006</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.8">
+      <c r="A16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2014</v>
+      </c>
+      <c r="F16" s="18">
+        <v>4</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.8">
+      <c r="A17" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2014</v>
+      </c>
+      <c r="F17" s="18">
+        <v>11</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.8">
+      <c r="A18" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.8">
+      <c r="A19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.8">
+      <c r="A20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1995</v>
+      </c>
+      <c r="F20" s="18">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.8">
+      <c r="A21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.8">
+      <c r="A22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="18">
+        <v>4</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8">
+      <c r="A23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F23" s="18">
+        <v>6</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8">
+      <c r="A24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2006</v>
+      </c>
+      <c r="F24" s="18">
+        <v>6</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.8">
+      <c r="A25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="18">
+        <v>10</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.8">
+      <c r="A26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F26" s="18">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.8">
+      <c r="A27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2005</v>
+      </c>
+      <c r="F27" s="18">
+        <v>8</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.8">
+      <c r="A28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F28" s="18">
+        <v>5</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.8">
+      <c r="A29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2006</v>
+      </c>
+      <c r="F29" s="18">
+        <v>11</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.8">
+      <c r="A30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2007</v>
+      </c>
+      <c r="F30" s="18">
+        <v>8</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.8">
+      <c r="A31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2008</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.8">
+      <c r="A32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="E32" s="18">
+        <v>2009</v>
+      </c>
+      <c r="F32" s="18">
+        <v>3</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.8">
+      <c r="A33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2009</v>
+      </c>
+      <c r="F33" s="18">
+        <v>8</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.8">
+      <c r="A34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E34" s="18">
+        <v>2010</v>
+      </c>
+      <c r="F34" s="18">
+        <v>7</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.8">
+      <c r="A35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2010</v>
+      </c>
+      <c r="F35" s="18">
+        <v>6</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.8">
+      <c r="A36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F36" s="18">
+        <v>8</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.8">
+      <c r="A37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F37" s="18">
+        <v>5</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.8">
+      <c r="A38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" s="18">
+        <v>2012</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.8">
+      <c r="A39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.8">
+      <c r="A40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.8">
+      <c r="A41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F41" s="18">
+        <v>4</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.8">
+      <c r="A42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E42" s="18">
+        <v>2014</v>
+      </c>
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.8">
+      <c r="A43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E43" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.8">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="E44" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="18">
+        <v>5</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.8">
+      <c r="A45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.8">
+      <c r="A46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.8">
+      <c r="A47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.8">
+      <c r="A48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" s="18">
+        <v>2</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.8">
+      <c r="A49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2015</v>
+      </c>
+      <c r="F49" s="18">
+        <v>5</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.8">
+      <c r="A50" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="18">
+        <v>2</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.8">
+      <c r="A51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F51" s="18">
+        <v>2</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.8">
+      <c r="A52" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.8">
+      <c r="A53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.8">
+      <c r="A54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F54" s="18">
+        <v>3</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.8">
+      <c r="A55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E55" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F55" s="18">
+        <v>2</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.8">
+      <c r="A56" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E56" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F56" s="18">
+        <v>9</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.8">
+      <c r="A57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E57" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F57" s="18">
+        <v>4</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.8">
+      <c r="A58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E58" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F58" s="18">
+        <v>2</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.8">
+      <c r="A59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F59" s="18">
+        <v>2</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.8">
+      <c r="A60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="E60" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F60" s="18">
+        <v>4</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.8">
+      <c r="A61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E61" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F61" s="18">
+        <v>3</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.8">
+      <c r="A62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F62" s="18">
+        <v>5</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.8">
+      <c r="A63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="E63" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F63" s="18">
+        <v>2</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.8">
+      <c r="A64" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F64" s="18">
+        <v>2</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.8">
+      <c r="A65" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F65" s="18">
+        <v>4</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.8">
+      <c r="A66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E66" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F66" s="18">
+        <v>3</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.8">
+      <c r="A67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F67" s="18">
+        <v>4</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.8">
+      <c r="A68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="E68" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F68" s="18">
+        <v>2</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.8">
+      <c r="A69" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="E69" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F69" s="18">
+        <v>5</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.8">
+      <c r="A70" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F70" s="18">
+        <v>3</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.8">
+      <c r="A71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E71" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F71" s="18">
+        <v>2</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.8">
+      <c r="A72" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E72" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F72" s="18">
+        <v>3</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.8">
+      <c r="A73" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="E73" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F73" s="18">
+        <v>7</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.8">
+      <c r="A74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E74" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F74" s="18">
+        <v>5</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.8">
+      <c r="A75" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F75" s="18">
+        <v>5</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.8">
+      <c r="A76" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E76" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F76" s="18">
+        <v>4</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.8">
+      <c r="A77" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F77" s="18">
+        <v>2</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.8">
+      <c r="A78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.8">
+      <c r="A79" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1987</v>
+      </c>
+      <c r="F79" s="18">
+        <v>9</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.8">
+      <c r="A80" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E80" s="18">
+        <v>2013</v>
+      </c>
+      <c r="F80" s="18">
+        <v>7</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.8">
+      <c r="A81" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F81" s="18">
+        <v>4</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.8">
+      <c r="A82" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F82" s="18">
+        <v>4</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.8">
+      <c r="A83" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="E83" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F83" s="18">
+        <v>2</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.8">
+      <c r="A84" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F84" s="18">
+        <v>2</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.8">
+      <c r="A85" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F85" s="18">
+        <v>2</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.8">
+      <c r="A86" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.8">
+      <c r="A87" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F87" s="18">
+        <v>6</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.8">
+      <c r="A88" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F88" s="18">
+        <v>6</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.8">
+      <c r="A89" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E89" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F89" s="18">
+        <v>2</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.8">
+      <c r="A90" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E90" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F90" s="18">
+        <v>3</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.8">
+      <c r="A91" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E91" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F91" s="18">
+        <v>4</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.8">
+      <c r="A92" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E92" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F92" s="18">
+        <v>2</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.8">
+      <c r="A93" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E93" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F93" s="18">
+        <v>2</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.8">
+      <c r="A94" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E94" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F94" s="18">
+        <v>2</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.8">
+      <c r="A95" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E95" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F95" s="18">
+        <v>8</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.8">
+      <c r="A96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.8">
+      <c r="A97" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="18">
+        <v>1994</v>
+      </c>
+      <c r="F97" s="18">
+        <v>3</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.8">
+      <c r="A98" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E98" s="18">
+        <v>2007</v>
+      </c>
+      <c r="F98" s="18">
+        <v>8</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.8">
+      <c r="A99" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" s="18">
+        <v>2011</v>
+      </c>
+      <c r="F99" s="18">
+        <v>2</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.8">
+      <c r="A100" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E100" s="18">
+        <v>2012</v>
+      </c>
+      <c r="F100" s="18">
+        <v>2</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.8">
+      <c r="A101" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101" s="18">
+        <v>2013</v>
+      </c>
+      <c r="F101" s="18">
+        <v>3</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.8">
+      <c r="A102" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E102" s="18">
+        <v>2011</v>
+      </c>
+      <c r="F102" s="18">
+        <v>8</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.8">
+      <c r="A103" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="E103" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F103" s="18">
+        <v>7</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.8">
+      <c r="A104" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F104" s="18">
+        <v>2</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.8">
+      <c r="A105" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F105" s="18">
+        <v>2</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.8">
+      <c r="A106" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F106" s="18">
+        <v>2</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.8">
+      <c r="A107" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F107" s="18">
+        <v>2</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.8">
+      <c r="A108" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E108" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F108" s="18">
+        <v>2</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.8">
+      <c r="A109" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E109" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F109" s="18">
+        <v>4</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.8">
+      <c r="A110" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F110" s="18">
+        <v>4</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.8">
+      <c r="A111" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E111" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F111" s="18">
+        <v>3</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.8">
+      <c r="A112" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F112" s="18">
+        <v>3</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.8">
+      <c r="A113" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F113" s="18">
+        <v>2</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.8">
+      <c r="A114" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E114" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F114" s="18">
+        <v>2</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.8">
+      <c r="A115" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E115" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F115" s="18">
+        <v>6</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.8">
+      <c r="A116" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F116" s="18">
+        <v>4</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16.8">
+      <c r="A117" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F117" s="18">
+        <v>4</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.8">
+      <c r="A118" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F118" s="18">
+        <v>4</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.8">
+      <c r="A119" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E119" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F119" s="18">
+        <v>2</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.8">
+      <c r="A120" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F120" s="18">
+        <v>2</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.8">
+      <c r="A121" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F121" s="18">
+        <v>3</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.8">
+      <c r="A122" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F122" s="18">
+        <v>3</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.8">
+      <c r="A123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16.8">
+      <c r="A124" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="18">
+        <v>2006</v>
+      </c>
+      <c r="F124" s="18">
+        <v>7</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16.8">
+      <c r="A125" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E125" s="18">
+        <v>2008</v>
+      </c>
+      <c r="F125" s="18">
+        <v>4</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16.8">
+      <c r="A126" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F126" s="18">
+        <v>4</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16.8">
+      <c r="A127" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F127" s="18">
+        <v>4</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16.8">
+      <c r="A128" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F128" s="18">
+        <v>4</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16.8">
+      <c r="A129" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E129" s="18">
+        <v>2017</v>
+      </c>
+      <c r="F129" s="18">
+        <v>5</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16.8">
+      <c r="A130" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F130" s="18">
+        <v>5</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16.8">
+      <c r="A131" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E131" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F131" s="18">
+        <v>8</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16.8">
+      <c r="A132" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="E132" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F132" s="18">
+        <v>12</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16.8">
+      <c r="A133" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E133" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F133" s="18">
+        <v>3</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16.8">
+      <c r="A134" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F134" s="18">
+        <v>3</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16.8">
+      <c r="A135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16.8">
+      <c r="A136" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E136" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F136" s="18">
+        <v>4</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.8">
+      <c r="A137" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F137" s="18">
+        <v>4</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.8">
+      <c r="A138" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E138" s="18">
+        <v>2012</v>
+      </c>
+      <c r="F138" s="18">
+        <v>5</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16.8">
+      <c r="A139" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E139" s="18">
+        <v>2019</v>
+      </c>
+      <c r="F139" s="18">
+        <v>2</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16.8">
+      <c r="A140" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E140" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F140" s="18">
+        <v>2</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16.8">
+      <c r="A141" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E141" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F141" s="18">
+        <v>2</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16.8">
+      <c r="A142" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="E142" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F142" s="18">
+        <v>2</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16.8">
+      <c r="A143" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F143" s="18">
+        <v>2</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16.8">
+      <c r="A144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="16.8">
+      <c r="A145" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" s="18">
+        <v>1993</v>
+      </c>
+      <c r="F145" s="18">
+        <v>3</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="16.8">
+      <c r="A146" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F146" s="18">
+        <v>3</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="16.8">
+      <c r="A147" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E147" s="18">
+        <v>1997</v>
+      </c>
+      <c r="F147" s="18">
+        <v>4</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16.8">
+      <c r="A148" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" s="18">
+        <v>2016</v>
+      </c>
+      <c r="F148" s="18">
+        <v>2</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16.8">
+      <c r="A149" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" s="18">
+        <v>2</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="16.8">
+      <c r="A150" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E150" s="18">
+        <v>2020</v>
+      </c>
+      <c r="F150" s="18">
+        <v>5</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16.8">
+      <c r="A151" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F151" s="18">
+        <v>6</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16.8">
+      <c r="A152" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E152" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F152" s="18">
+        <v>2</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16.8">
+      <c r="A153" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E153" s="18">
+        <v>2021</v>
+      </c>
+      <c r="F153" s="18">
+        <v>4</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="16.8">
+      <c r="A154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16.8">
+      <c r="A155" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E155" s="18">
+        <v>2001</v>
+      </c>
+      <c r="F155" s="18">
+        <v>4</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="16.8">
+      <c r="A156" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F156" s="18">
+        <v>4</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="16.8">
+      <c r="J159" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="K159" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L159" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="M159" s="19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="J160">
+        <v>148</v>
+      </c>
+      <c r="K160">
+        <v>84</v>
+      </c>
+      <c r="L160">
+        <v>22</v>
+      </c>
+      <c r="M160">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -13561,12 +18487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C19"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -13610,7 +18536,7 @@
       <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>453</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -13636,7 +18562,7 @@
       <c r="A3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
@@ -13660,7 +18586,7 @@
       <c r="A4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
@@ -13684,7 +18610,7 @@
       <c r="A5" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
@@ -13708,11 +18634,11 @@
       <c r="A6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -13732,9 +18658,9 @@
       <c r="A7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="15" t="s">
         <v>240</v>
       </c>
@@ -13752,9 +18678,9 @@
       <c r="A8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="15" t="s">
         <v>242</v>
       </c>
@@ -13772,9 +18698,9 @@
       <c r="A9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="15" t="s">
         <v>244</v>
       </c>
@@ -13792,9 +18718,9 @@
       <c r="A10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="15" t="s">
         <v>246</v>
       </c>
@@ -13812,9 +18738,9 @@
       <c r="A11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="15" t="s">
         <v>248</v>
       </c>
@@ -13832,7 +18758,7 @@
       <c r="A12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
@@ -13856,11 +18782,11 @@
       <c r="A13" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -13880,9 +18806,9 @@
       <c r="A14" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="15" t="s">
         <v>235</v>
       </c>
@@ -13900,13 +18826,13 @@
       <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -13926,9 +18852,9 @@
       <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="15" t="s">
         <v>429</v>
       </c>
@@ -13946,9 +18872,9 @@
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15" t="s">
         <v>432</v>
       </c>
@@ -13966,9 +18892,9 @@
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="15" t="s">
         <v>433</v>
       </c>
@@ -13986,9 +18912,9 @@
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="15" t="s">
         <v>435</v>
       </c>
@@ -14006,11 +18932,11 @@
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -14030,9 +18956,9 @@
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="15" t="s">
         <v>376</v>
       </c>
@@ -14050,11 +18976,11 @@
       <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -14074,9 +19000,9 @@
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="15" t="s">
         <v>370</v>
       </c>
@@ -14094,7 +19020,7 @@
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="15" t="s">
         <v>38</v>
       </c>
@@ -14118,7 +19044,7 @@
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
@@ -14142,7 +19068,7 @@
       <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="15" t="s">
         <v>181</v>
       </c>
@@ -14166,7 +19092,7 @@
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="15" t="s">
         <v>205</v>
       </c>
@@ -14190,7 +19116,7 @@
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="15" t="s">
         <v>197</v>
       </c>
@@ -14214,7 +19140,7 @@
       <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="15" t="s">
         <v>43</v>
       </c>
@@ -14238,7 +19164,7 @@
       <c r="A30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="15" t="s">
         <v>45</v>
       </c>
@@ -14262,11 +19188,11 @@
       <c r="A31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -14286,9 +19212,9 @@
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="15" t="s">
         <v>404</v>
       </c>
@@ -14306,7 +19232,7 @@
       <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="15" t="s">
         <v>47</v>
       </c>
@@ -14330,11 +19256,11 @@
       <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -14354,9 +19280,9 @@
       <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="15" t="s">
         <v>410</v>
       </c>
@@ -14374,7 +19300,7 @@
       <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="15" t="s">
         <v>54</v>
       </c>
@@ -14398,7 +19324,7 @@
       <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="15" t="s">
         <v>56</v>
       </c>
@@ -14422,7 +19348,7 @@
       <c r="A38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="15" t="s">
         <v>58</v>
       </c>
@@ -14446,7 +19372,7 @@
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="15" t="s">
         <v>169</v>
       </c>
@@ -14470,11 +19396,11 @@
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="23" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -14494,9 +19420,9 @@
       <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="15" t="s">
         <v>419</v>
       </c>
@@ -14514,11 +19440,11 @@
       <c r="A42" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -14538,9 +19464,9 @@
       <c r="A43" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="15" t="s">
         <v>450</v>
       </c>
@@ -14558,7 +19484,7 @@
       <c r="A44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="15" t="s">
         <v>195</v>
       </c>
@@ -14582,7 +19508,7 @@
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="15" t="s">
         <v>64</v>
       </c>
@@ -14606,7 +19532,7 @@
       <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="15" t="s">
         <v>170</v>
       </c>
@@ -14630,7 +19556,7 @@
       <c r="A47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="15" t="s">
         <v>193</v>
       </c>
@@ -14654,7 +19580,7 @@
       <c r="A48" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="15" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +19604,7 @@
       <c r="A49" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="15" t="s">
         <v>68</v>
       </c>
@@ -14702,7 +19628,7 @@
       <c r="A50" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="15" t="s">
         <v>223</v>
       </c>
@@ -14726,7 +19652,7 @@
       <c r="A51" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="15" t="s">
         <v>72</v>
       </c>
@@ -14750,7 +19676,7 @@
       <c r="A52" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="18"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="15" t="s">
         <v>88</v>
       </c>
@@ -14774,7 +19700,7 @@
       <c r="A53" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="15" t="s">
         <v>231</v>
       </c>
@@ -14798,7 +19724,7 @@
       <c r="A54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="15" t="s">
         <v>82</v>
       </c>
@@ -14822,7 +19748,7 @@
       <c r="A55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
@@ -14846,7 +19772,7 @@
       <c r="A56" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="15" t="s">
         <v>86</v>
       </c>
@@ -14870,7 +19796,7 @@
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="15" t="s">
         <v>90</v>
       </c>
@@ -14894,7 +19820,7 @@
       <c r="A58" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="15" t="s">
         <v>80</v>
       </c>
@@ -14918,7 +19844,7 @@
       <c r="A59" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="15" t="s">
         <v>92</v>
       </c>
@@ -14942,7 +19868,7 @@
       <c r="A60" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="15" t="s">
         <v>203</v>
       </c>
@@ -14966,7 +19892,7 @@
       <c r="A61" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="15" t="s">
         <v>209</v>
       </c>
@@ -14990,7 +19916,7 @@
       <c r="A62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="23" t="s">
         <v>458</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -15016,7 +19942,7 @@
       <c r="A63" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="15" t="s">
         <v>94</v>
       </c>
@@ -15040,7 +19966,7 @@
       <c r="A64" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="15" t="s">
         <v>96</v>
       </c>
@@ -15064,11 +19990,11 @@
       <c r="A65" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -15088,9 +20014,9 @@
       <c r="A66" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="15" t="s">
         <v>333</v>
       </c>
@@ -15108,7 +20034,7 @@
       <c r="A67" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="15" t="s">
         <v>101</v>
       </c>
@@ -15132,7 +20058,7 @@
       <c r="A68" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="15" t="s">
         <v>103</v>
       </c>
@@ -15156,7 +20082,7 @@
       <c r="A69" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="15" t="s">
         <v>105</v>
       </c>
@@ -15180,7 +20106,7 @@
       <c r="A70" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="15" t="s">
         <v>107</v>
       </c>
@@ -15204,11 +20130,11 @@
       <c r="A71" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -15228,9 +20154,9 @@
       <c r="A72" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="15" t="s">
         <v>318</v>
       </c>
@@ -15248,9 +20174,9 @@
       <c r="A73" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="15" t="s">
         <v>320</v>
       </c>
@@ -15268,7 +20194,7 @@
       <c r="A74" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="15" t="s">
         <v>211</v>
       </c>
@@ -15292,7 +20218,7 @@
       <c r="A75" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="23" t="s">
         <v>453</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -15318,7 +20244,7 @@
       <c r="A76" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="15" t="s">
         <v>185</v>
       </c>
@@ -15342,11 +20268,11 @@
       <c r="A77" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="15" t="s">
@@ -15366,9 +20292,9 @@
       <c r="A78" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="15" t="s">
         <v>292</v>
       </c>
@@ -15386,7 +20312,7 @@
       <c r="A79" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="15" t="s">
         <v>114</v>
       </c>
@@ -15410,11 +20336,11 @@
       <c r="A80" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E80" s="15" t="s">
@@ -15434,9 +20360,9 @@
       <c r="A81" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="15" t="s">
         <v>285</v>
       </c>
@@ -15454,7 +20380,7 @@
       <c r="A82" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="18"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="15" t="s">
         <v>118</v>
       </c>
@@ -15478,7 +20404,7 @@
       <c r="A83" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="15" t="s">
         <v>120</v>
       </c>
@@ -15502,7 +20428,7 @@
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="15" t="s">
         <v>122</v>
       </c>
@@ -15526,7 +20452,7 @@
       <c r="A85" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="15" t="s">
         <v>124</v>
       </c>
@@ -15550,7 +20476,7 @@
       <c r="A86" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="18"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="15" t="s">
         <v>126</v>
       </c>
@@ -15574,7 +20500,7 @@
       <c r="A87" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="15" t="s">
         <v>172</v>
       </c>
@@ -15598,7 +20524,7 @@
       <c r="A88" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="18"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="15" t="s">
         <v>179</v>
       </c>
@@ -15622,7 +20548,7 @@
       <c r="A89" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="23" t="s">
         <v>460</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -15648,7 +20574,7 @@
       <c r="A90" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="18"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="15" t="s">
         <v>131</v>
       </c>
@@ -15672,7 +20598,7 @@
       <c r="A91" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="18"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="15" t="s">
         <v>135</v>
       </c>
@@ -15696,7 +20622,7 @@
       <c r="A92" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="15" t="s">
         <v>137</v>
       </c>
@@ -15720,7 +20646,7 @@
       <c r="A93" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="15" t="s">
         <v>70</v>
       </c>
@@ -15744,7 +20670,7 @@
       <c r="A94" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="18"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="15" t="s">
         <v>139</v>
       </c>
@@ -15768,7 +20694,7 @@
       <c r="A95" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="18"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="15" t="s">
         <v>157</v>
       </c>
@@ -15792,7 +20718,7 @@
       <c r="A96" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="23" t="s">
         <v>461</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -15818,7 +20744,7 @@
       <c r="A97" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="18"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="15" t="s">
         <v>183</v>
       </c>
@@ -15842,11 +20768,11 @@
       <c r="A98" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="23"/>
+      <c r="C98" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -15866,9 +20792,9 @@
       <c r="A99" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="15" t="s">
         <v>340</v>
       </c>
@@ -15886,9 +20812,9 @@
       <c r="A100" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="15" t="s">
         <v>342</v>
       </c>
@@ -15906,9 +20832,9 @@
       <c r="A101" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="15" t="s">
         <v>344</v>
       </c>
@@ -15926,7 +20852,7 @@
       <c r="A102" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="23" t="s">
         <v>462</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -15952,7 +20878,7 @@
       <c r="A103" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="18"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="15" t="s">
         <v>149</v>
       </c>
@@ -15976,7 +20902,7 @@
       <c r="A104" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="18"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="15" t="s">
         <v>226</v>
       </c>
@@ -16000,7 +20926,7 @@
       <c r="A105" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="18"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="15" t="s">
         <v>207</v>
       </c>
@@ -16024,7 +20950,7 @@
       <c r="A106" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="18"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="15" t="s">
         <v>228</v>
       </c>
@@ -16048,7 +20974,7 @@
       <c r="A107" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="18"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="15" t="s">
         <v>304</v>
       </c>
@@ -16127,11 +21053,6 @@
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D40:D41"/>
@@ -16142,6 +21063,11 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B75:B88"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
@@ -16162,11 +21088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
@@ -16207,7 +21133,7 @@
       <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>453</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -16230,7 +21156,7 @@
       <c r="A3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
@@ -16251,7 +21177,7 @@
       <c r="A4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
@@ -16272,7 +21198,7 @@
       <c r="A5" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
@@ -16293,11 +21219,11 @@
       <c r="A6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -16314,9 +21240,9 @@
       <c r="A7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="15" t="s">
         <v>240</v>
       </c>
@@ -16331,9 +21257,9 @@
       <c r="A8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="15" t="s">
         <v>242</v>
       </c>
@@ -16348,9 +21274,9 @@
       <c r="A9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="15" t="s">
         <v>244</v>
       </c>
@@ -16365,9 +21291,9 @@
       <c r="A10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="15" t="s">
         <v>246</v>
       </c>
@@ -16382,9 +21308,9 @@
       <c r="A11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="15" t="s">
         <v>248</v>
       </c>
@@ -16399,7 +21325,7 @@
       <c r="A12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
@@ -16420,11 +21346,11 @@
       <c r="A13" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -16441,9 +21367,9 @@
       <c r="A14" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="15" t="s">
         <v>235</v>
       </c>
@@ -16458,13 +21384,13 @@
       <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -16481,9 +21407,9 @@
       <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="15" t="s">
         <v>429</v>
       </c>
@@ -16498,9 +21424,9 @@
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15" t="s">
         <v>432</v>
       </c>
@@ -16515,9 +21441,9 @@
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="15" t="s">
         <v>433</v>
       </c>
@@ -16532,9 +21458,9 @@
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="15" t="s">
         <v>435</v>
       </c>
@@ -16549,11 +21475,11 @@
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -16570,9 +21496,9 @@
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="15" t="s">
         <v>376</v>
       </c>
@@ -16587,11 +21513,11 @@
       <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -16608,9 +21534,9 @@
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="15" t="s">
         <v>370</v>
       </c>
@@ -16625,7 +21551,7 @@
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="15" t="s">
         <v>38</v>
       </c>
@@ -16646,7 +21572,7 @@
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
@@ -16667,7 +21593,7 @@
       <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="15" t="s">
         <v>181</v>
       </c>
@@ -16688,7 +21614,7 @@
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="15" t="s">
         <v>205</v>
       </c>
@@ -16709,7 +21635,7 @@
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="15" t="s">
         <v>197</v>
       </c>
@@ -16730,7 +21656,7 @@
       <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="15" t="s">
         <v>43</v>
       </c>
@@ -16751,7 +21677,7 @@
       <c r="A30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="15" t="s">
         <v>45</v>
       </c>
@@ -16772,11 +21698,11 @@
       <c r="A31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -16793,9 +21719,9 @@
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="15" t="s">
         <v>404</v>
       </c>
@@ -16810,7 +21736,7 @@
       <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="15" t="s">
         <v>47</v>
       </c>
@@ -16831,11 +21757,11 @@
       <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -16852,9 +21778,9 @@
       <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="15" t="s">
         <v>410</v>
       </c>
@@ -16869,7 +21795,7 @@
       <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="15" t="s">
         <v>54</v>
       </c>
@@ -16890,7 +21816,7 @@
       <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="15" t="s">
         <v>56</v>
       </c>
@@ -16911,7 +21837,7 @@
       <c r="A38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="15" t="s">
         <v>58</v>
       </c>
@@ -16932,7 +21858,7 @@
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="15" t="s">
         <v>169</v>
       </c>
@@ -16953,11 +21879,11 @@
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="23" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -16974,9 +21900,9 @@
       <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="15" t="s">
         <v>419</v>
       </c>
@@ -16991,11 +21917,11 @@
       <c r="A42" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -17012,9 +21938,9 @@
       <c r="A43" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="15" t="s">
         <v>450</v>
       </c>
@@ -17029,7 +21955,7 @@
       <c r="A44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="15" t="s">
         <v>195</v>
       </c>
@@ -17050,7 +21976,7 @@
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="15" t="s">
         <v>64</v>
       </c>
@@ -17071,7 +21997,7 @@
       <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="15" t="s">
         <v>170</v>
       </c>
@@ -17092,7 +22018,7 @@
       <c r="A47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="15" t="s">
         <v>193</v>
       </c>
@@ -17113,7 +22039,7 @@
       <c r="A48" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="15" t="s">
         <v>66</v>
       </c>
@@ -17134,7 +22060,7 @@
       <c r="A49" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="15" t="s">
         <v>68</v>
       </c>
@@ -17155,7 +22081,7 @@
       <c r="A50" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="15" t="s">
         <v>223</v>
       </c>
@@ -17176,7 +22102,7 @@
       <c r="A51" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="15" t="s">
         <v>72</v>
       </c>
@@ -17197,7 +22123,7 @@
       <c r="A52" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="18"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="15" t="s">
         <v>88</v>
       </c>
@@ -17218,7 +22144,7 @@
       <c r="A53" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="15" t="s">
         <v>231</v>
       </c>
@@ -17239,7 +22165,7 @@
       <c r="A54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="15" t="s">
         <v>82</v>
       </c>
@@ -17260,7 +22186,7 @@
       <c r="A55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
@@ -17281,7 +22207,7 @@
       <c r="A56" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="15" t="s">
         <v>86</v>
       </c>
@@ -17302,7 +22228,7 @@
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="15" t="s">
         <v>90</v>
       </c>
@@ -17323,7 +22249,7 @@
       <c r="A58" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="15" t="s">
         <v>80</v>
       </c>
@@ -17344,7 +22270,7 @@
       <c r="A59" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="15" t="s">
         <v>92</v>
       </c>
@@ -17365,7 +22291,7 @@
       <c r="A60" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="15" t="s">
         <v>203</v>
       </c>
@@ -17386,7 +22312,7 @@
       <c r="A61" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="15" t="s">
         <v>209</v>
       </c>
@@ -17407,7 +22333,7 @@
       <c r="A62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="23" t="s">
         <v>458</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -17430,7 +22356,7 @@
       <c r="A63" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="15" t="s">
         <v>94</v>
       </c>
@@ -17451,7 +22377,7 @@
       <c r="A64" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="15" t="s">
         <v>96</v>
       </c>
@@ -17472,11 +22398,11 @@
       <c r="A65" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -17493,9 +22419,9 @@
       <c r="A66" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="15" t="s">
         <v>333</v>
       </c>
@@ -17510,7 +22436,7 @@
       <c r="A67" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="15" t="s">
         <v>101</v>
       </c>
@@ -17531,7 +22457,7 @@
       <c r="A68" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="15" t="s">
         <v>103</v>
       </c>
@@ -17552,7 +22478,7 @@
       <c r="A69" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="15" t="s">
         <v>105</v>
       </c>
@@ -17573,7 +22499,7 @@
       <c r="A70" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="15" t="s">
         <v>107</v>
       </c>
@@ -17594,11 +22520,11 @@
       <c r="A71" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -17615,9 +22541,9 @@
       <c r="A72" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="15" t="s">
         <v>318</v>
       </c>
@@ -17632,9 +22558,9 @@
       <c r="A73" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="15" t="s">
         <v>320</v>
       </c>
@@ -17649,7 +22575,7 @@
       <c r="A74" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="15" t="s">
         <v>211</v>
       </c>
@@ -17670,7 +22596,7 @@
       <c r="A75" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="23" t="s">
         <v>453</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -17693,7 +22619,7 @@
       <c r="A76" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="15" t="s">
         <v>185</v>
       </c>
@@ -17714,11 +22640,11 @@
       <c r="A77" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="15" t="s">
@@ -17735,9 +22661,9 @@
       <c r="A78" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="15" t="s">
         <v>292</v>
       </c>
@@ -17752,7 +22678,7 @@
       <c r="A79" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="15" t="s">
         <v>114</v>
       </c>
@@ -17773,11 +22699,11 @@
       <c r="A80" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E80" s="15" t="s">
@@ -17794,9 +22720,9 @@
       <c r="A81" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="15" t="s">
         <v>285</v>
       </c>
@@ -17811,7 +22737,7 @@
       <c r="A82" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="18"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="15" t="s">
         <v>118</v>
       </c>
@@ -17832,7 +22758,7 @@
       <c r="A83" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="15" t="s">
         <v>120</v>
       </c>
@@ -17853,7 +22779,7 @@
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="15" t="s">
         <v>122</v>
       </c>
@@ -17874,7 +22800,7 @@
       <c r="A85" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="15" t="s">
         <v>124</v>
       </c>
@@ -17895,7 +22821,7 @@
       <c r="A86" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="18"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="15" t="s">
         <v>126</v>
       </c>
@@ -17916,7 +22842,7 @@
       <c r="A87" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="15" t="s">
         <v>172</v>
       </c>
@@ -17937,7 +22863,7 @@
       <c r="A88" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="18"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="15" t="s">
         <v>179</v>
       </c>
@@ -17958,7 +22884,7 @@
       <c r="A89" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="23" t="s">
         <v>460</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -17981,7 +22907,7 @@
       <c r="A90" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="18"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="15" t="s">
         <v>131</v>
       </c>
@@ -18002,7 +22928,7 @@
       <c r="A91" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="18"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="15" t="s">
         <v>135</v>
       </c>
@@ -18023,7 +22949,7 @@
       <c r="A92" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="15" t="s">
         <v>137</v>
       </c>
@@ -18044,7 +22970,7 @@
       <c r="A93" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="15" t="s">
         <v>70</v>
       </c>
@@ -18065,7 +22991,7 @@
       <c r="A94" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="18"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="15" t="s">
         <v>139</v>
       </c>
@@ -18086,7 +23012,7 @@
       <c r="A95" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="18"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="15" t="s">
         <v>157</v>
       </c>
@@ -18107,7 +23033,7 @@
       <c r="A96" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="23" t="s">
         <v>461</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -18130,7 +23056,7 @@
       <c r="A97" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="18"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="15" t="s">
         <v>183</v>
       </c>
@@ -18151,11 +23077,11 @@
       <c r="A98" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="23"/>
+      <c r="C98" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -18172,9 +23098,9 @@
       <c r="A99" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="15" t="s">
         <v>340</v>
       </c>
@@ -18189,9 +23115,9 @@
       <c r="A100" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="15" t="s">
         <v>342</v>
       </c>
@@ -18206,9 +23132,9 @@
       <c r="A101" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="15" t="s">
         <v>344</v>
       </c>
@@ -18223,7 +23149,7 @@
       <c r="A102" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="23" t="s">
         <v>462</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -18246,7 +23172,7 @@
       <c r="A103" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="18"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="15" t="s">
         <v>149</v>
       </c>
@@ -18267,7 +23193,7 @@
       <c r="A104" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="18"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="15" t="s">
         <v>226</v>
       </c>
@@ -18288,7 +23214,7 @@
       <c r="A105" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="18"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="15" t="s">
         <v>207</v>
       </c>
@@ -18309,7 +23235,7 @@
       <c r="A106" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="18"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="15" t="s">
         <v>228</v>
       </c>
@@ -18330,7 +23256,7 @@
       <c r="A107" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="18"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="15" t="s">
         <v>304</v>
       </c>
@@ -18395,17 +23321,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="C42:C43"/>
@@ -18420,6 +23344,8 @@
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="B96:B101"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="D98:D101"/>
@@ -18435,7 +23361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
